--- a/StudentsN5.xlsx
+++ b/StudentsN5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_e_r\OneDrive\Belgeler\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_e_r\OneDrive\Masaüstü\IE400_Question3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF48E5-3499-4788-82EA-1E260737F05B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF701FF8-A857-4327-BBDD-FBB82DEBC768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{369B6DA5-02DA-4128-B304-86D0F7281D14}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2B90385F-8170-42A0-8377-73ADD81DF37A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -391,19 +391,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BBA556-18D7-4BDE-AB3F-914655334543}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AEEFDD-1697-4879-9031-6D5D79A2AF4C}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+      <c r="B1">
+        <v>201.625</v>
+      </c>
+      <c r="C1">
+        <v>165.625</v>
+      </c>
+      <c r="D1">
+        <v>217.25</v>
+      </c>
+      <c r="E1">
+        <v>185.25</v>
+      </c>
+      <c r="F1">
+        <v>160.875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>201.625</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>193.625</v>
+      </c>
+      <c r="D2">
+        <v>226.75</v>
+      </c>
+      <c r="E2">
+        <v>176.5</v>
+      </c>
+      <c r="F2">
+        <v>179.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>165.625</v>
+      </c>
+      <c r="B3">
+        <v>193.625</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>184.375</v>
+      </c>
+      <c r="E3">
+        <v>170</v>
+      </c>
+      <c r="F3">
+        <v>191.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>217.25</v>
+      </c>
+      <c r="B4">
+        <v>226.75</v>
+      </c>
+      <c r="C4">
+        <v>184.375</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>227.125</v>
+      </c>
+      <c r="F4">
+        <v>189.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>185.25</v>
+      </c>
+      <c r="B5">
+        <v>176.5</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+      <c r="D5">
+        <v>227.125</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>209.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>160.875</v>
+      </c>
+      <c r="B6">
+        <v>179.25</v>
+      </c>
+      <c r="C6">
+        <v>191.625</v>
+      </c>
+      <c r="D6">
+        <v>189.625</v>
+      </c>
+      <c r="E6">
+        <v>209.125</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54E41A8-8527-45AB-9923-5DF717B9F61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A07343-B5B7-4700-BEB3-533FE3958AFF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -440,19 +563,19 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>204.375</v>
+        <v>166.25</v>
       </c>
       <c r="D2">
-        <v>193.5</v>
+        <v>241.125</v>
       </c>
       <c r="E2">
-        <v>191.25</v>
+        <v>189</v>
       </c>
       <c r="F2">
-        <v>186.875</v>
+        <v>155.5</v>
       </c>
       <c r="G2">
-        <v>178.75</v>
+        <v>205.375</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -460,22 +583,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>204.375</v>
+        <v>166.25</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>194.5</v>
+        <v>184.75</v>
       </c>
       <c r="E3">
-        <v>184.625</v>
+        <v>185.125</v>
       </c>
       <c r="F3">
-        <v>179</v>
+        <v>222.125</v>
       </c>
       <c r="G3">
-        <v>190.75</v>
+        <v>209.625</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,22 +606,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>193.5</v>
+        <v>241.125</v>
       </c>
       <c r="C4">
-        <v>194.5</v>
+        <v>184.75</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>182.75</v>
+        <v>228.625</v>
       </c>
       <c r="F4">
-        <v>154.625</v>
+        <v>177.375</v>
       </c>
       <c r="G4">
-        <v>223.375</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,22 +629,22 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>191.25</v>
+        <v>189</v>
       </c>
       <c r="C5">
-        <v>184.625</v>
+        <v>185.125</v>
       </c>
       <c r="D5">
-        <v>182.75</v>
+        <v>228.625</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>229.625</v>
+        <v>199.5</v>
       </c>
       <c r="G5">
-        <v>212.875</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,22 +652,22 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>186.875</v>
+        <v>155.5</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>222.125</v>
       </c>
       <c r="D6">
-        <v>154.625</v>
+        <v>177.375</v>
       </c>
       <c r="E6">
-        <v>229.625</v>
+        <v>199.5</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
       <c r="G6">
-        <v>166.5</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,19 +675,19 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>178.75</v>
+        <v>205.375</v>
       </c>
       <c r="C7">
-        <v>190.75</v>
+        <v>209.625</v>
       </c>
       <c r="D7">
-        <v>223.375</v>
+        <v>215</v>
       </c>
       <c r="E7">
-        <v>212.875</v>
+        <v>195</v>
       </c>
       <c r="F7">
-        <v>166.5</v>
+        <v>225.75</v>
       </c>
       <c r="G7">
         <v>1000</v>
